--- a/data/SUNPHARMA.xlsx
+++ b/data/SUNPHARMA.xlsx
@@ -401,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H496"/>
+  <dimension ref="A1:H499"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -13303,6 +13303,84 @@
         <v>19711.07</v>
       </c>
     </row>
+    <row r="497" spans="1:8">
+      <c r="A497" s="2">
+        <v>42775</v>
+      </c>
+      <c r="B497">
+        <v>665</v>
+      </c>
+      <c r="C497">
+        <v>669</v>
+      </c>
+      <c r="D497">
+        <v>653.35</v>
+      </c>
+      <c r="E497">
+        <v>655.45</v>
+      </c>
+      <c r="F497">
+        <v>655.5</v>
+      </c>
+      <c r="G497">
+        <v>3295494</v>
+      </c>
+      <c r="H497">
+        <v>21702.51</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8">
+      <c r="A498" s="2">
+        <v>42776</v>
+      </c>
+      <c r="B498">
+        <v>655.5</v>
+      </c>
+      <c r="C498">
+        <v>662.1</v>
+      </c>
+      <c r="D498">
+        <v>650.1</v>
+      </c>
+      <c r="E498">
+        <v>656.4</v>
+      </c>
+      <c r="F498">
+        <v>655.05</v>
+      </c>
+      <c r="G498">
+        <v>2814314</v>
+      </c>
+      <c r="H498">
+        <v>18472.35</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8">
+      <c r="A499" s="2">
+        <v>42779</v>
+      </c>
+      <c r="B499">
+        <v>656.5</v>
+      </c>
+      <c r="C499">
+        <v>659.45</v>
+      </c>
+      <c r="D499">
+        <v>648</v>
+      </c>
+      <c r="E499">
+        <v>655.6</v>
+      </c>
+      <c r="F499">
+        <v>654.7</v>
+      </c>
+      <c r="G499">
+        <v>1885766</v>
+      </c>
+      <c r="H499">
+        <v>12311.09</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
